--- a/file.xlsx
+++ b/file.xlsx
@@ -29,7 +29,7 @@
     <t>apps_there_are_no_selected</t>
   </si>
   <si>
-    <t>No apps selected</t>
+    <t>%s apps selected</t>
   </si>
   <si>
     <t>ultra_energy_saving_change_settings_for_decrease_brightness</t>

--- a/file.xlsx
+++ b/file.xlsx
@@ -29,7 +29,7 @@
     <t>apps_there_are_no_selected</t>
   </si>
   <si>
-    <t>%s apps selected</t>
+    <t>%s apps selected't</t>
   </si>
   <si>
     <t>ultra_energy_saving_change_settings_for_decrease_brightness</t>
